--- a/Selenium/Bugs/data/genre/연주곡.xlsx
+++ b/Selenium/Bugs/data/genre/연주곡.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="779">
   <si>
     <t>Title</t>
   </si>
@@ -28,348 +28,351 @@
     <t>Jingle Bells</t>
   </si>
   <si>
+    <t xml:space="preserve">White Christmas </t>
+  </si>
+  <si>
+    <t>The First Nowell</t>
+  </si>
+  <si>
+    <t>Bach: Weihnachtsoratorium, BWV 248, Pt. 1: No. 5, Wie soll ich dich empfangen (Arr. Wright for Trumpet)</t>
+  </si>
+  <si>
+    <t>Frozen II Medley</t>
+  </si>
+  <si>
+    <t>A Winter Story</t>
+  </si>
+  <si>
+    <t>Hedwig's Theme (From "Harry Potter And The Philosopher's Stone" / Live At Walt Disney Concert Hall, Los Angeles / 2019)</t>
+  </si>
+  <si>
+    <t>When You Wish Upon a Star (피노키오 OST)</t>
+  </si>
+  <si>
+    <t>Disney Medley: Pinocchio / Song of the South / The Lady and the Tramp / Alice in Wonderland / Snow White</t>
+  </si>
+  <si>
+    <t>Have Yourself a Merry Little Christmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Night, H. 145a-g </t>
+  </si>
+  <si>
+    <t>Pavarotti, Benvenuti: Ave Maria, dolce Maria (Live)</t>
+  </si>
+  <si>
+    <t>Handel: Messiah, HWV 56, Pt. 1, Scene 1: Aria. "Ev'ry Valley Shall Be Exalted"</t>
+  </si>
+  <si>
+    <t>Frank: Panis Angelicus (생명의 양식)</t>
+  </si>
+  <si>
+    <t>Walking In The Air (스노우맨)</t>
+  </si>
+  <si>
+    <t>Adam / Arr Pasatieri : “O Holy Night“ [Cantique de Noel]</t>
+  </si>
+  <si>
+    <t>차이콥스키: 호두까기 인형 모음곡, 작품번호 71a: 2. Danses caractéristiques. a. Marche: Tempo di marcia viva</t>
+  </si>
+  <si>
+    <t>Tchaikovsky: Swan Lake, Op. 20, TH. 12 - 13.4 Dance of the Four Swans (Arr. for Piano by Earl Wild)</t>
+  </si>
+  <si>
+    <t>Carol Of The Bells</t>
+  </si>
+  <si>
+    <t>O come, O come, Emmanuel</t>
+  </si>
+  <si>
+    <t>Traditional: Es Ist Ein Ros' Enstprungen (Lo' How A Rose E'Er Blooming) (Arr. M. Praetorius)</t>
+  </si>
+  <si>
+    <t>Schutz: O Jesu, Nomen Dulce</t>
+  </si>
+  <si>
+    <t>J.S. Bach: Christmas Oratorio, BWV 248 - Part Two - For the second Day of Christmas - No.23 Chorale: "Wir singen dir in deinem Heer"</t>
+  </si>
+  <si>
+    <t>Traditional: The First Nowell (Arr. By Paul Halley)</t>
+  </si>
+  <si>
+    <t>Hark The Herald Angels Sing (Album Version)</t>
+  </si>
+  <si>
+    <t>O Come All Ye Faithful (With The Mormon Tabernacle Choir Under The Direction Of Craig Jessop)</t>
+  </si>
+  <si>
+    <t>Have Yourself A Merry Little Christmas</t>
+  </si>
+  <si>
+    <t>Gloomy X-mas</t>
+  </si>
+  <si>
+    <t>즐겁게, 음악.</t>
+  </si>
+  <si>
+    <t>YK</t>
+  </si>
+  <si>
+    <t>Bounce Walk</t>
+  </si>
+  <si>
+    <t>Solitary Man</t>
+  </si>
+  <si>
+    <t>The Gonia</t>
+  </si>
+  <si>
+    <t>Taste Of Espresso</t>
+  </si>
+  <si>
+    <t>Sweet And Sour</t>
+  </si>
+  <si>
+    <t>Vessel</t>
+  </si>
+  <si>
+    <t>A Quiet Afternoon</t>
+  </si>
+  <si>
+    <t>Magic Theatre</t>
+  </si>
+  <si>
+    <t>Ahou Bro</t>
+  </si>
+  <si>
+    <t>Sur Le Quai</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Nostelgia</t>
+  </si>
+  <si>
+    <t>일상의 행복</t>
+  </si>
+  <si>
+    <t>위로</t>
+  </si>
+  <si>
+    <t>단이의 방</t>
+  </si>
+  <si>
+    <t>Looking For Love</t>
+  </si>
+  <si>
+    <t>사랑이었습니까? (Was That Love ?)</t>
+  </si>
+  <si>
+    <t>Brother (강태, 상태's Theme)</t>
+  </si>
+  <si>
+    <t>보내지 못한 마음 (Piano ver.)</t>
+  </si>
+  <si>
+    <t>영국 런던 그리니치 천문대</t>
+  </si>
+  <si>
+    <t>현지와 봉팔이</t>
+  </si>
+  <si>
+    <t>우리 엄마</t>
+  </si>
+  <si>
+    <t>My guardian angel</t>
+  </si>
+  <si>
+    <t>달빛이 내릴때</t>
+  </si>
+  <si>
+    <t>까멜리아</t>
+  </si>
+  <si>
+    <t>단꿈</t>
+  </si>
+  <si>
+    <t>Save the last dance for me (부제: Whistling Love)</t>
+  </si>
+  <si>
+    <t>About Her (그 여자 이야기 Theme)</t>
+  </si>
+  <si>
+    <t>Love Snow</t>
+  </si>
+  <si>
+    <t>The Lover</t>
+  </si>
+  <si>
+    <t>기억해야 할 사람</t>
+  </si>
+  <si>
+    <t>첫사랑의 추억</t>
+  </si>
+  <si>
+    <t>지금 내가 좋아하는 사람</t>
+  </si>
+  <si>
+    <t>Pino Dream Strings</t>
+  </si>
+  <si>
+    <t>Amor Fati</t>
+  </si>
+  <si>
+    <t>HAPPINESS</t>
+  </si>
+  <si>
+    <t>SKY Theme</t>
+  </si>
+  <si>
+    <t>지욱을 바라보는 봉희</t>
+  </si>
+  <si>
+    <t>träumerei : 꿈 (Main theme)</t>
+  </si>
+  <si>
+    <t>Memories</t>
+  </si>
+  <si>
+    <t>낭만의 시대</t>
+  </si>
+  <si>
+    <t>매지구름</t>
+  </si>
+  <si>
+    <t>Thumbelina</t>
+  </si>
+  <si>
+    <t>Rhapsody</t>
+  </si>
+  <si>
+    <t>월화수목금토일</t>
+  </si>
+  <si>
+    <t>You're My Angel</t>
+  </si>
+  <si>
+    <t>그대가 지나간 자리</t>
+  </si>
+  <si>
+    <t>달에게서 온 편지(Clair de lune)</t>
+  </si>
+  <si>
+    <t>Backcap Conqueror</t>
+  </si>
+  <si>
+    <t>숨바꼭질</t>
+  </si>
+  <si>
+    <t>No Worry (태평가)</t>
+  </si>
+  <si>
+    <t>바람꽃</t>
+  </si>
+  <si>
+    <t>감출수 없는 마음</t>
+  </si>
+  <si>
+    <t>달 (The Moon) (Acoustic Ver.)</t>
+  </si>
+  <si>
+    <t>새벽의 달</t>
+  </si>
+  <si>
+    <t>그리다(어이 얼어자리) (inst.)</t>
+  </si>
+  <si>
+    <t>가면</t>
+  </si>
+  <si>
+    <t>Sky blue (청마루)</t>
+  </si>
+  <si>
+    <t>미추홀풍류 (Soul In Michuholl)</t>
+  </si>
+  <si>
+    <t>님을 보내드리겠사옵니다 (I Will Miss You)</t>
+  </si>
+  <si>
+    <t>별꽃놀음 (Full ver.)</t>
+  </si>
+  <si>
+    <t>Legend (전설)</t>
+  </si>
+  <si>
+    <t>시대를 초월한 마음</t>
+  </si>
+  <si>
+    <t>시타를 위하여</t>
+  </si>
+  <si>
+    <t>Empire Theme</t>
+  </si>
+  <si>
+    <t>天涯地角 (천애지각)</t>
+  </si>
+  <si>
+    <t>Christmas Pageant</t>
+  </si>
+  <si>
+    <t>Star of Bethlehem (Instrumental)</t>
+  </si>
+  <si>
+    <t>Christmas At Hogwarts (From "해리 포터와 마법사의 돌")</t>
+  </si>
+  <si>
+    <t>Epilogue (From "Frozen"/Score)</t>
+  </si>
+  <si>
+    <t>Ice Dance</t>
+  </si>
+  <si>
+    <t>A Christmas Carol Main Title</t>
+  </si>
+  <si>
+    <t>Anderson: Rudolph The Red-Nosed Reindeer - Johnny Marks, Arr. Richard Hayman</t>
+  </si>
+  <si>
+    <t>Joy to the World (Orchestra Version)</t>
+  </si>
+  <si>
+    <t>Deck The Hall With Boughs Of Holly</t>
+  </si>
+  <si>
+    <t>Santa Claus Is Coming To Town</t>
+  </si>
+  <si>
+    <t>Angels We Have Heard On High</t>
+  </si>
+  <si>
+    <t>Sleigh Ride</t>
+  </si>
+  <si>
+    <t>Good King Wenceslaus</t>
+  </si>
+  <si>
+    <t>Fantasia On Greensleeves</t>
+  </si>
+  <si>
+    <t>Christmas Bells</t>
+  </si>
+  <si>
+    <t>We Three Kings Of Orient Are - We Wish You A Merry Christmas / Arr. By G.Schwarz</t>
+  </si>
+  <si>
+    <t>Here We Come A Wassailing</t>
+  </si>
+  <si>
+    <t>Christmas Song</t>
+  </si>
+  <si>
+    <t>O Come, Little Children</t>
+  </si>
+  <si>
     <t>White Christmas</t>
   </si>
   <si>
-    <t>The First Nowell</t>
-  </si>
-  <si>
-    <t>Bach: Weihnachtsoratorium, BWV 248, Pt. 1: No. 5, Wie soll ich dich empfangen (Arr. Wright for Trumpet)</t>
-  </si>
-  <si>
-    <t>Frozen II Medley</t>
-  </si>
-  <si>
-    <t>A Winter Story</t>
-  </si>
-  <si>
-    <t>Hedwig's Theme (From "Harry Potter And The Philosopher's Stone" / Live At Walt Disney Concert Hall, Los Angeles / 2019)</t>
-  </si>
-  <si>
-    <t>When You Wish Upon a Star (피노키오 OST)</t>
-  </si>
-  <si>
-    <t>Disney Medley: Pinocchio / Song of the South / The Lady and the Tramp / Alice in Wonderland / Snow White</t>
-  </si>
-  <si>
-    <t>Have Yourself a Merry Little Christmas</t>
-  </si>
-  <si>
-    <t>Silent Night, H. 145a-g</t>
-  </si>
-  <si>
-    <t>Pavarotti, Benvenuti: Ave Maria, dolce Maria (Live)</t>
-  </si>
-  <si>
-    <t>Handel: Messiah, HWV 56, Pt. 1, Scene 1: Aria. "Ev'ry Valley Shall Be Exalted"</t>
-  </si>
-  <si>
-    <t>Frank: Panis Angelicus (생명의 양식)</t>
-  </si>
-  <si>
-    <t>Walking In The Air (스노우맨)</t>
-  </si>
-  <si>
-    <t>Adam / Arr Pasatieri : “O Holy Night“ [Cantique de Noel]</t>
-  </si>
-  <si>
-    <t>차이콥스키: 호두까기 인형 모음곡, 작품번호 71a: 2. Danses caractéristiques. a. Marche: Tempo di marcia viva</t>
-  </si>
-  <si>
-    <t>Tchaikovsky: Swan Lake, Op. 20, TH. 12 - 13.4 Dance of the Four Swans (Arr. for Piano by Earl Wild)</t>
-  </si>
-  <si>
-    <t>Carol Of The Bells</t>
-  </si>
-  <si>
-    <t>O come, O come, Emmanuel</t>
-  </si>
-  <si>
-    <t>Traditional: Es Ist Ein Ros' Enstprungen (Lo' How A Rose E'Er Blooming) (Arr. M. Praetorius)</t>
-  </si>
-  <si>
-    <t>Schutz: O Jesu, Nomen Dulce</t>
-  </si>
-  <si>
-    <t>J.S. Bach: Christmas Oratorio, BWV 248 - Part Two - For the second Day of Christmas - No.23 Chorale: "Wir singen dir in deinem Heer"</t>
-  </si>
-  <si>
-    <t>Traditional: The First Nowell (Arr. By Paul Halley)</t>
-  </si>
-  <si>
-    <t>Hark The Herald Angels Sing (Album Version)</t>
-  </si>
-  <si>
-    <t>O Come All Ye Faithful (With The Mormon Tabernacle Choir Under The Direction Of Craig Jessop)</t>
-  </si>
-  <si>
-    <t>Have Yourself A Merry Little Christmas</t>
-  </si>
-  <si>
-    <t>Gloomy X-mas</t>
-  </si>
-  <si>
-    <t>즐겁게, 음악.</t>
-  </si>
-  <si>
-    <t>YK</t>
-  </si>
-  <si>
-    <t>Bounce Walk</t>
-  </si>
-  <si>
-    <t>Solitary Man</t>
-  </si>
-  <si>
-    <t>The Gonia</t>
-  </si>
-  <si>
-    <t>Taste Of Espresso</t>
-  </si>
-  <si>
-    <t>Sweet And Sour</t>
-  </si>
-  <si>
-    <t>Vessel</t>
-  </si>
-  <si>
-    <t>A Quiet Afternoon</t>
-  </si>
-  <si>
-    <t>Magic Theatre</t>
-  </si>
-  <si>
-    <t>Ahou Bro</t>
-  </si>
-  <si>
-    <t>Sur Le Quai</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Nostelgia</t>
-  </si>
-  <si>
-    <t>일상의 행복</t>
-  </si>
-  <si>
-    <t>위로</t>
-  </si>
-  <si>
-    <t>단이의 방</t>
-  </si>
-  <si>
-    <t>Looking For Love</t>
-  </si>
-  <si>
-    <t>사랑이었습니까? (Was That Love ?)</t>
-  </si>
-  <si>
-    <t>Brother (강태, 상태's Theme)</t>
-  </si>
-  <si>
-    <t>보내지 못한 마음 (Piano ver.)</t>
-  </si>
-  <si>
-    <t>영국 런던 그리니치 천문대</t>
-  </si>
-  <si>
-    <t>현지와 봉팔이</t>
-  </si>
-  <si>
-    <t>우리 엄마</t>
-  </si>
-  <si>
-    <t>My guardian angel</t>
-  </si>
-  <si>
-    <t>달빛이 내릴때</t>
-  </si>
-  <si>
-    <t>까멜리아</t>
-  </si>
-  <si>
-    <t>단꿈</t>
-  </si>
-  <si>
-    <t>Save the last dance for me (부제: Whistling Love)</t>
-  </si>
-  <si>
-    <t>About Her (그 여자 이야기 Theme)</t>
-  </si>
-  <si>
-    <t>Love Snow</t>
-  </si>
-  <si>
-    <t>The Lover</t>
-  </si>
-  <si>
-    <t>기억해야 할 사람</t>
-  </si>
-  <si>
-    <t>첫사랑의 추억</t>
-  </si>
-  <si>
-    <t>지금 내가 좋아하는 사람</t>
-  </si>
-  <si>
-    <t>Pino Dream Strings</t>
-  </si>
-  <si>
-    <t>Amor Fati</t>
-  </si>
-  <si>
-    <t>HAPPINESS</t>
-  </si>
-  <si>
-    <t>SKY Theme</t>
-  </si>
-  <si>
-    <t>지욱을 바라보는 봉희</t>
-  </si>
-  <si>
-    <t>träumerei : 꿈 (Main theme)</t>
-  </si>
-  <si>
-    <t>Memories</t>
-  </si>
-  <si>
-    <t>낭만의 시대</t>
-  </si>
-  <si>
-    <t>매지구름</t>
-  </si>
-  <si>
-    <t>Thumbelina</t>
-  </si>
-  <si>
-    <t>Rhapsody</t>
-  </si>
-  <si>
-    <t>월화수목금토일</t>
-  </si>
-  <si>
-    <t>You're My Angel</t>
-  </si>
-  <si>
-    <t>그대가 지나간 자리</t>
-  </si>
-  <si>
-    <t>달에게서 온 편지(Clair de lune)</t>
-  </si>
-  <si>
-    <t>Backcap Conqueror</t>
-  </si>
-  <si>
-    <t>숨바꼭질</t>
-  </si>
-  <si>
-    <t>No Worry (태평가)</t>
-  </si>
-  <si>
-    <t>바람꽃</t>
-  </si>
-  <si>
-    <t>감출수 없는 마음</t>
-  </si>
-  <si>
-    <t>달 (The Moon) (Acoustic Ver.)</t>
-  </si>
-  <si>
-    <t>새벽의 달</t>
-  </si>
-  <si>
-    <t>그리다(어이 얼어자리) (inst.)</t>
-  </si>
-  <si>
-    <t>가면</t>
-  </si>
-  <si>
-    <t>Sky blue (청마루)</t>
-  </si>
-  <si>
-    <t>미추홀풍류 (Soul In Michuholl)</t>
-  </si>
-  <si>
-    <t>님을 보내드리겠사옵니다 (I Will Miss You)</t>
-  </si>
-  <si>
-    <t>별꽃놀음 (Full ver.)</t>
-  </si>
-  <si>
-    <t>Legend (전설)</t>
-  </si>
-  <si>
-    <t>시대를 초월한 마음</t>
-  </si>
-  <si>
-    <t>시타를 위하여</t>
-  </si>
-  <si>
-    <t>Empire Theme</t>
-  </si>
-  <si>
-    <t>天涯地角 (천애지각)</t>
-  </si>
-  <si>
-    <t>Christmas Pageant</t>
-  </si>
-  <si>
-    <t>Star of Bethlehem (Instrumental)</t>
-  </si>
-  <si>
-    <t>Christmas At Hogwarts (From "해리 포터와 마법사의 돌")</t>
-  </si>
-  <si>
-    <t>Epilogue (From "Frozen"/Score)</t>
-  </si>
-  <si>
-    <t>Ice Dance</t>
-  </si>
-  <si>
-    <t>A Christmas Carol Main Title</t>
-  </si>
-  <si>
-    <t>Anderson: Rudolph The Red-Nosed Reindeer - Johnny Marks, Arr. Richard Hayman</t>
-  </si>
-  <si>
-    <t>Joy to the World (Orchestra Version)</t>
-  </si>
-  <si>
-    <t>Deck The Hall With Boughs Of Holly</t>
-  </si>
-  <si>
-    <t>Santa Claus Is Coming To Town</t>
-  </si>
-  <si>
-    <t>Angels We Have Heard On High</t>
-  </si>
-  <si>
-    <t>Sleigh Ride</t>
-  </si>
-  <si>
-    <t>Good King Wenceslaus</t>
-  </si>
-  <si>
-    <t>Fantasia On Greensleeves</t>
-  </si>
-  <si>
-    <t>Christmas Bells</t>
-  </si>
-  <si>
-    <t>We Three Kings Of Orient Are - We Wish You A Merry Christmas / Arr. By G.Schwarz</t>
-  </si>
-  <si>
-    <t>Here We Come A Wassailing</t>
-  </si>
-  <si>
-    <t>Christmas Song</t>
-  </si>
-  <si>
-    <t>O Come, Little Children</t>
-  </si>
-  <si>
     <t>St. Paul's Suite Iv. Finale (What Child Is This?)</t>
   </si>
   <si>
@@ -379,7 +382,7 @@
     <t>Tchaikovsky: The Nutcracker Suite - March</t>
   </si>
   <si>
-    <t>Tchaikovsky: The Nutcracker Suite - Trepak: Russian Dance</t>
+    <t xml:space="preserve">Tchaikovsky: The Nutcracker Suite - Trepak: Russian Dance </t>
   </si>
   <si>
     <t>The Cossack Dance</t>
@@ -394,7 +397,7 @@
     <t>Gesu Bambino</t>
   </si>
   <si>
-    <t>Silent Night Holy Night</t>
+    <t xml:space="preserve">Silent Night Holy Night </t>
   </si>
   <si>
     <t>The First Noel</t>
@@ -661,7 +664,7 @@
     <t>It's the Most Wonderful Time of the Year</t>
   </si>
   <si>
-    <t>Little Drummer Boy</t>
+    <t xml:space="preserve">Little Drummer Boy </t>
   </si>
   <si>
     <t>The Christmas Song (feat. Natalie Cole) (Remastered 1999)</t>
@@ -2743,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2757,10 +2760,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2771,10 +2774,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2785,10 +2788,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2799,10 +2802,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2813,10 +2816,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2827,10 +2830,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2841,10 +2844,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2855,10 +2858,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2869,10 +2872,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2883,10 +2886,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2897,10 +2900,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2911,10 +2914,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2925,10 +2928,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2939,10 +2942,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2953,10 +2956,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2967,10 +2970,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2981,10 +2984,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2995,10 +2998,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3009,7 +3012,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3020,10 +3023,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3034,10 +3037,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3048,10 +3051,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3062,10 +3065,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3076,10 +3079,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3090,10 +3093,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3104,10 +3107,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3118,10 +3121,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3132,10 +3135,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3146,10 +3149,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3160,10 +3163,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3174,10 +3177,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3188,10 +3191,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3202,10 +3205,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3216,10 +3219,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3230,10 +3233,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3244,10 +3247,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3258,10 +3261,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3272,10 +3275,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3286,10 +3289,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3300,10 +3303,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3314,10 +3317,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3328,10 +3331,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3342,10 +3345,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3356,10 +3359,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3370,10 +3373,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3384,10 +3387,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3398,10 +3401,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3412,10 +3415,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3426,10 +3429,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3440,10 +3443,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3454,10 +3457,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3468,10 +3471,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3482,10 +3485,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3496,10 +3499,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3510,10 +3513,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3524,10 +3527,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3538,10 +3541,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3552,10 +3555,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3566,10 +3569,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3580,10 +3583,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3594,10 +3597,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3608,10 +3611,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3622,10 +3625,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3636,10 +3639,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3650,10 +3653,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3664,10 +3667,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3678,10 +3681,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3692,10 +3695,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3706,10 +3709,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3720,10 +3723,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3734,10 +3737,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3748,10 +3751,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3762,10 +3765,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3776,10 +3779,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3790,10 +3793,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3804,10 +3807,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3818,10 +3821,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3832,10 +3835,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3846,10 +3849,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3860,10 +3863,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3874,10 +3877,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3888,10 +3891,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3902,10 +3905,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3916,10 +3919,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3930,10 +3933,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3944,10 +3947,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3958,10 +3961,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3972,10 +3975,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3986,10 +3989,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4000,10 +4003,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4014,10 +4017,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4028,10 +4031,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4042,10 +4045,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4056,10 +4059,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4070,10 +4073,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4084,10 +4087,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4098,10 +4101,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4112,10 +4115,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4126,10 +4129,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4140,10 +4143,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4154,10 +4157,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4168,10 +4171,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4182,10 +4185,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4196,10 +4199,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4210,10 +4213,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4224,10 +4227,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4238,10 +4241,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4252,10 +4255,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4266,10 +4269,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4280,10 +4283,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4294,10 +4297,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4308,10 +4311,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4322,10 +4325,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4336,10 +4339,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4350,10 +4353,10 @@
         <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4361,13 +4364,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4375,13 +4378,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4389,13 +4392,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4403,13 +4406,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4417,13 +4420,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4431,13 +4434,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4445,13 +4448,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4459,13 +4462,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4473,13 +4476,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4487,13 +4490,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4501,13 +4504,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4515,13 +4518,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4529,13 +4532,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4543,13 +4546,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4557,13 +4560,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4571,13 +4574,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4585,13 +4588,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4599,13 +4602,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4613,13 +4616,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4627,13 +4630,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4641,13 +4644,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4655,13 +4658,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4669,13 +4672,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4683,13 +4686,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4697,13 +4700,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4711,13 +4714,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4725,13 +4728,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4739,13 +4742,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4753,13 +4756,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4767,13 +4770,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4781,13 +4784,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4795,13 +4798,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4809,13 +4812,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4823,13 +4826,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4837,13 +4840,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4851,13 +4854,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4865,13 +4868,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4879,13 +4882,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4893,13 +4896,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4907,13 +4910,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4921,13 +4924,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4935,13 +4938,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4949,13 +4952,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4963,13 +4966,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4977,13 +4980,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4991,13 +4994,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5005,13 +5008,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5019,13 +5022,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5033,13 +5036,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5047,13 +5050,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5061,13 +5064,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5075,13 +5078,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5089,13 +5092,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5103,13 +5106,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5117,13 +5120,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5131,13 +5134,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5145,13 +5148,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5159,13 +5162,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5173,13 +5176,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5187,13 +5190,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5201,13 +5204,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5215,13 +5218,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5229,13 +5232,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5243,13 +5246,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5257,13 +5260,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5271,13 +5274,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5285,13 +5288,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5299,13 +5302,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5313,13 +5316,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5327,13 +5330,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5341,13 +5344,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5355,13 +5358,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5369,13 +5372,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5383,13 +5386,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5397,13 +5400,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5411,13 +5414,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5425,13 +5428,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5439,13 +5442,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5453,13 +5456,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5467,13 +5470,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5481,13 +5484,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5495,13 +5498,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5509,13 +5512,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5523,13 +5526,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5537,13 +5540,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5551,13 +5554,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5565,13 +5568,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5579,13 +5582,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C205" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5593,13 +5596,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C206" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5607,13 +5610,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C207" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5624,10 +5627,10 @@
         <v>110</v>
       </c>
       <c r="C208" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5635,13 +5638,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5649,13 +5652,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5663,13 +5666,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5677,13 +5680,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5691,13 +5694,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5705,13 +5708,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5719,13 +5722,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5733,13 +5736,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5747,13 +5750,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5761,13 +5764,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5775,13 +5778,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5789,13 +5792,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C220" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5803,13 +5806,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5817,13 +5820,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5831,13 +5834,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5845,13 +5848,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5859,13 +5862,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5873,13 +5876,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5887,13 +5890,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5901,13 +5904,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5915,13 +5918,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5929,13 +5932,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5943,13 +5946,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5957,13 +5960,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5971,13 +5974,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5985,13 +5988,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5999,13 +6002,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6013,13 +6016,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6027,13 +6030,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6041,13 +6044,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6055,13 +6058,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6069,13 +6072,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6083,13 +6086,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6097,13 +6100,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6111,13 +6114,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6125,13 +6128,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6139,13 +6142,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6153,13 +6156,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6167,13 +6170,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6181,13 +6184,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6195,13 +6198,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6209,13 +6212,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6223,13 +6226,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6237,13 +6240,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6251,13 +6254,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6265,13 +6268,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6279,13 +6282,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6293,13 +6296,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6307,13 +6310,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6321,13 +6324,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6335,13 +6338,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6349,13 +6352,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6363,13 +6366,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6377,13 +6380,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6391,13 +6394,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6405,13 +6408,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6419,13 +6422,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C265" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6433,13 +6436,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6447,13 +6450,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C267" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6461,13 +6464,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C268" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6475,13 +6478,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C269" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6489,13 +6492,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C270" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6503,13 +6506,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C271" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6517,13 +6520,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C272" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6531,13 +6534,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C273" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6545,13 +6548,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C274" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6559,13 +6562,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C275" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6573,13 +6576,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C276" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6587,13 +6590,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C277" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6601,13 +6604,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C278" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6615,13 +6618,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C279" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6629,13 +6632,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C280" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6643,13 +6646,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C281" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6657,13 +6660,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C282" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6671,13 +6674,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6685,13 +6688,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C284" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6699,13 +6702,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C285" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6713,13 +6716,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C286" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6727,13 +6730,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C287" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6741,13 +6744,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C288" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6755,13 +6758,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C289" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6769,13 +6772,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C290" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6783,13 +6786,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C291" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6797,13 +6800,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C292" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6811,13 +6814,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C293" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6825,13 +6828,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C294" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6839,13 +6842,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C295" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6853,13 +6856,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C296" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6867,13 +6870,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C297" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6881,13 +6884,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C298" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6895,13 +6898,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C299" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6909,13 +6912,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C300" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6923,13 +6926,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C301" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6937,13 +6940,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C302" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6951,13 +6954,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6965,13 +6968,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C304" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6979,13 +6982,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C305" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6993,13 +6996,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C306" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7007,13 +7010,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C307" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7021,13 +7024,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C308" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7035,13 +7038,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C309" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7049,13 +7052,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C310" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7063,13 +7066,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C311" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7077,13 +7080,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C312" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7091,13 +7094,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C313" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7105,13 +7108,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C314" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7119,13 +7122,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C315" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7133,13 +7136,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C316" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7147,13 +7150,13 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C317" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7161,13 +7164,13 @@
         <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C318" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7175,13 +7178,13 @@
         <v>320</v>
       </c>
       <c r="B319" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C319" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7189,13 +7192,13 @@
         <v>321</v>
       </c>
       <c r="B320" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C320" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
